--- a/Code/Results/Cases/Case_8_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.15451871490098</v>
+        <v>24.06784334823291</v>
       </c>
       <c r="C2">
-        <v>16.69077989564569</v>
+        <v>18.01253640534744</v>
       </c>
       <c r="D2">
-        <v>2.15078267489352</v>
+        <v>2.560864227955574</v>
       </c>
       <c r="E2">
-        <v>5.267480162665135</v>
+        <v>5.962528554359139</v>
       </c>
       <c r="F2">
-        <v>44.25370089273413</v>
+        <v>37.26698187292801</v>
       </c>
       <c r="G2">
-        <v>2.135394344795424</v>
+        <v>7.484610457291393</v>
       </c>
       <c r="H2">
-        <v>3.567538687824887</v>
+        <v>2.930537130116395</v>
       </c>
       <c r="I2">
-        <v>4.220611259071137</v>
+        <v>3.576378290963306</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>29.02286965503363</v>
+        <v>23.55401100596729</v>
       </c>
       <c r="L2">
-        <v>5.623571188254442</v>
+        <v>18.59143692997739</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.48024635900062</v>
       </c>
       <c r="N2">
-        <v>7.878235349820223</v>
+        <v>5.65239154307319</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.421779787850534</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.65861053313706</v>
+        <v>22.52410232824723</v>
       </c>
       <c r="C3">
-        <v>15.52876783383219</v>
+        <v>16.76449252126577</v>
       </c>
       <c r="D3">
-        <v>2.135011148234549</v>
+        <v>2.543867415364056</v>
       </c>
       <c r="E3">
-        <v>5.088478269096681</v>
+        <v>5.861135156185458</v>
       </c>
       <c r="F3">
-        <v>42.57461312522916</v>
+        <v>36.04112328240165</v>
       </c>
       <c r="G3">
-        <v>2.142960504165342</v>
+        <v>8.360703647494889</v>
       </c>
       <c r="H3">
-        <v>3.916668057340831</v>
+        <v>3.202919653542056</v>
       </c>
       <c r="I3">
-        <v>4.512428968877585</v>
+        <v>3.791919806612509</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.19468478170448</v>
+        <v>23.10978765830837</v>
       </c>
       <c r="L3">
-        <v>5.516304031211712</v>
+        <v>18.39630434863321</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>16.01622862685667</v>
       </c>
       <c r="N3">
-        <v>7.578088572448307</v>
+        <v>5.586927763836902</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.094624196019279</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.6930655481094</v>
+        <v>21.52163046189317</v>
       </c>
       <c r="C4">
-        <v>14.77993840037713</v>
+        <v>15.95574082404898</v>
       </c>
       <c r="D4">
-        <v>2.125623063903285</v>
+        <v>2.534201377545501</v>
       </c>
       <c r="E4">
-        <v>4.975986375966077</v>
+        <v>5.797494933571338</v>
       </c>
       <c r="F4">
-        <v>41.51287495381438</v>
+        <v>35.26274429478465</v>
       </c>
       <c r="G4">
-        <v>2.147740818575385</v>
+        <v>8.915514734222885</v>
       </c>
       <c r="H4">
-        <v>4.137460587579535</v>
+        <v>3.375619821086801</v>
       </c>
       <c r="I4">
-        <v>4.697351208885846</v>
+        <v>3.929195483702164</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>27.67250975824394</v>
+        <v>22.82764057185423</v>
       </c>
       <c r="L4">
-        <v>5.448222022210894</v>
+        <v>18.26413387670034</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.73900698447553</v>
       </c>
       <c r="N4">
-        <v>7.38930819841834</v>
+        <v>5.545213642776623</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.888537657692707</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.28811663715879</v>
+        <v>21.09951305210099</v>
       </c>
       <c r="C5">
-        <v>14.47257192546281</v>
+        <v>15.62095035711982</v>
       </c>
       <c r="D5">
-        <v>2.116857076109221</v>
+        <v>2.530687533591517</v>
       </c>
       <c r="E5">
-        <v>4.929220546939588</v>
+        <v>5.771103939985993</v>
       </c>
       <c r="F5">
-        <v>41.03861240254185</v>
+        <v>34.9113707471229</v>
       </c>
       <c r="G5">
-        <v>2.149738718366951</v>
+        <v>9.147553277262308</v>
       </c>
       <c r="H5">
-        <v>4.229801204849783</v>
+        <v>3.447905826603558</v>
       </c>
       <c r="I5">
-        <v>4.776775580002722</v>
+        <v>3.989368121014346</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>27.43070636403926</v>
+        <v>22.69030444044844</v>
       </c>
       <c r="L5">
-        <v>5.418793216597538</v>
+        <v>18.19078870252188</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.61429893453011</v>
       </c>
       <c r="N5">
-        <v>7.313409285245188</v>
+        <v>5.527148122413482</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.805044159812279</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.22044138693362</v>
+        <v>21.02871688607854</v>
       </c>
       <c r="C6">
-        <v>14.42921556386771</v>
+        <v>15.57145792654669</v>
       </c>
       <c r="D6">
-        <v>2.109320563321531</v>
+        <v>2.530429867707116</v>
       </c>
       <c r="E6">
-        <v>4.92111787465861</v>
+        <v>5.766586102265419</v>
       </c>
       <c r="F6">
-        <v>40.91748669894837</v>
+        <v>34.81844226861634</v>
       </c>
       <c r="G6">
-        <v>2.150090795224444</v>
+        <v>9.188303569497373</v>
       </c>
       <c r="H6">
-        <v>4.246091276004208</v>
+        <v>3.460614140803716</v>
       </c>
       <c r="I6">
-        <v>4.793330039500369</v>
+        <v>4.003240261473968</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>27.35887569683981</v>
+        <v>22.64286693612533</v>
       </c>
       <c r="L6">
-        <v>5.412514136721658</v>
+        <v>18.15845177345573</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.57668015701044</v>
       </c>
       <c r="N6">
-        <v>7.303303542417104</v>
+        <v>5.523300082870572</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.793200923934611</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.68831637761507</v>
+        <v>21.51678211804076</v>
       </c>
       <c r="C7">
-        <v>14.7976752401053</v>
+        <v>15.91279163611707</v>
       </c>
       <c r="D7">
-        <v>2.108894827593815</v>
+        <v>2.5357886009978</v>
       </c>
       <c r="E7">
-        <v>4.974557174908647</v>
+        <v>5.797877560988947</v>
       </c>
       <c r="F7">
-        <v>41.39339673555043</v>
+        <v>35.00232951391208</v>
       </c>
       <c r="G7">
-        <v>2.147816829156586</v>
+        <v>8.975715017060121</v>
       </c>
       <c r="H7">
-        <v>4.141013484064908</v>
+        <v>3.381599586591229</v>
       </c>
       <c r="I7">
-        <v>4.707149451592439</v>
+        <v>3.943097567515049</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>27.58404427384791</v>
+        <v>22.65785678414343</v>
       </c>
       <c r="L7">
-        <v>5.44415280685498</v>
+        <v>18.12730239843882</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.61914414851749</v>
       </c>
       <c r="N7">
-        <v>7.395185371470984</v>
+        <v>5.54008642259299</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.891242878122783</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.64915948254157</v>
+        <v>23.54814738872886</v>
       </c>
       <c r="C8">
-        <v>16.32379977432251</v>
+        <v>17.43973037788124</v>
       </c>
       <c r="D8">
-        <v>2.123442760800708</v>
+        <v>2.560952795463336</v>
       </c>
       <c r="E8">
-        <v>5.205237353795431</v>
+        <v>5.930892405515865</v>
       </c>
       <c r="F8">
-        <v>43.53839733734641</v>
+        <v>36.2155842636484</v>
       </c>
       <c r="G8">
-        <v>2.138039055555859</v>
+        <v>8.027009336776239</v>
       </c>
       <c r="H8">
-        <v>3.689587092343057</v>
+        <v>3.03614066749787</v>
       </c>
       <c r="I8">
-        <v>4.331327669618282</v>
+        <v>3.672277650429876</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>28.63123598465581</v>
+        <v>22.99256466386214</v>
       </c>
       <c r="L8">
-        <v>5.582324306908197</v>
+        <v>18.20395981131691</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.0200120571047</v>
       </c>
       <c r="N8">
-        <v>7.784430421445013</v>
+        <v>5.618884991275682</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.311409464679151</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.1169339382389</v>
+        <v>27.09613993939402</v>
       </c>
       <c r="C9">
-        <v>19.00474268928162</v>
+        <v>20.27831265669121</v>
       </c>
       <c r="D9">
-        <v>2.38097311649632</v>
+        <v>2.607647094360454</v>
       </c>
       <c r="E9">
-        <v>5.640073218395244</v>
+        <v>6.177505535675564</v>
       </c>
       <c r="F9">
-        <v>47.67415083316023</v>
+        <v>39.13661677174743</v>
       </c>
       <c r="G9">
-        <v>2.119795142357207</v>
+        <v>6.01903649516458</v>
       </c>
       <c r="H9">
-        <v>2.848984751407178</v>
+        <v>2.3859010539155</v>
       </c>
       <c r="I9">
-        <v>3.623566261741341</v>
+        <v>3.152070323394264</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30.71503726732815</v>
+        <v>24.05722343285717</v>
       </c>
       <c r="L9">
-        <v>5.842667566434166</v>
+        <v>18.64474775267312</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.2034790393629</v>
       </c>
       <c r="N9">
-        <v>8.498005055551594</v>
+        <v>5.775023381594894</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.087762627410104</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.43303120691102</v>
+        <v>29.43877277303048</v>
       </c>
       <c r="C10">
-        <v>20.81289428506216</v>
+        <v>21.89848660641779</v>
       </c>
       <c r="D10">
-        <v>2.57113627609903</v>
+        <v>2.679293906829473</v>
       </c>
       <c r="E10">
-        <v>5.940053454634074</v>
+        <v>6.348589480560863</v>
       </c>
       <c r="F10">
-        <v>50.00461391107709</v>
+        <v>39.93700201971684</v>
       </c>
       <c r="G10">
-        <v>2.107236324631873</v>
+        <v>5.771134216486638</v>
       </c>
       <c r="H10">
-        <v>2.293676549050972</v>
+        <v>1.981999076868664</v>
       </c>
       <c r="I10">
-        <v>3.14540957439259</v>
+        <v>2.822134272037049</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.7957117028827</v>
+        <v>24.01176777392572</v>
       </c>
       <c r="L10">
-        <v>5.995567880777875</v>
+        <v>18.33179370470081</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.49130403605951</v>
       </c>
       <c r="N10">
-        <v>8.924598174619558</v>
+        <v>5.855956715074517</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.537415859447337</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.43374864444491</v>
+        <v>30.44248291335431</v>
       </c>
       <c r="C11">
-        <v>21.57870717458388</v>
+        <v>22.00344811141629</v>
       </c>
       <c r="D11">
-        <v>2.577051245376047</v>
+        <v>2.892115521052174</v>
       </c>
       <c r="E11">
-        <v>6.06829670784763</v>
+        <v>6.386435991685525</v>
       </c>
       <c r="F11">
-        <v>46.73309700727616</v>
+        <v>35.67635996986475</v>
       </c>
       <c r="G11">
-        <v>2.104009181874348</v>
+        <v>8.873689586161406</v>
       </c>
       <c r="H11">
-        <v>3.0899279663928</v>
+        <v>2.909940471271356</v>
       </c>
       <c r="I11">
-        <v>3.047114007968525</v>
+        <v>2.782932096244546</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>29.29553380516701</v>
+        <v>21.09065986748518</v>
       </c>
       <c r="L11">
-        <v>5.884211261886864</v>
+        <v>16.07098652287488</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.36793579073238</v>
       </c>
       <c r="N11">
-        <v>8.483270572418141</v>
+        <v>5.818575384188527</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.019782197141527</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.80352778455995</v>
+        <v>30.81254198517591</v>
       </c>
       <c r="C12">
-        <v>21.83122685111227</v>
+        <v>21.89195392289275</v>
       </c>
       <c r="D12">
-        <v>2.569208848276657</v>
+        <v>3.037484516182568</v>
       </c>
       <c r="E12">
-        <v>6.220514451626811</v>
+        <v>6.455505807401835</v>
       </c>
       <c r="F12">
-        <v>43.60855305627334</v>
+        <v>32.52492848306137</v>
       </c>
       <c r="G12">
-        <v>2.103654570779024</v>
+        <v>10.60553878171175</v>
       </c>
       <c r="H12">
-        <v>4.378431481584495</v>
+        <v>4.254827290326244</v>
       </c>
       <c r="I12">
-        <v>3.039163745756063</v>
+        <v>2.782524657577141</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.08470533715678</v>
+        <v>19.11466664779174</v>
       </c>
       <c r="L12">
-        <v>5.848604141225737</v>
+        <v>14.61441028023116</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.85387692355235</v>
       </c>
       <c r="N12">
-        <v>8.013327303110779</v>
+        <v>5.860059012541736</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.488129135233677</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.72321480551395</v>
+        <v>30.7310651029401</v>
       </c>
       <c r="C13">
-        <v>21.73696180939822</v>
+        <v>21.73140253618045</v>
       </c>
       <c r="D13">
-        <v>2.533569162833993</v>
+        <v>3.076804899592263</v>
       </c>
       <c r="E13">
-        <v>6.391163821762999</v>
+        <v>6.580021079861943</v>
       </c>
       <c r="F13">
-        <v>40.19649387039706</v>
+        <v>30.17194761053805</v>
       </c>
       <c r="G13">
-        <v>2.105566171209327</v>
+        <v>10.28923732568901</v>
       </c>
       <c r="H13">
-        <v>5.774320981640814</v>
+        <v>5.664251245044575</v>
       </c>
       <c r="I13">
-        <v>3.116039175350943</v>
+        <v>2.828335206435284</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.82531484273827</v>
+        <v>17.79709641694821</v>
       </c>
       <c r="L13">
-        <v>5.86277907997134</v>
+        <v>13.69001156023953</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.7824844877302</v>
       </c>
       <c r="N13">
-        <v>7.495310754871992</v>
+        <v>5.952170614263793</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.9159326285608</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46315404270976</v>
+        <v>30.46879412714838</v>
       </c>
       <c r="C14">
-        <v>21.51877800153484</v>
+        <v>21.59422742081172</v>
       </c>
       <c r="D14">
-        <v>2.495455223847712</v>
+        <v>3.058163252220185</v>
       </c>
       <c r="E14">
-        <v>6.52836245272118</v>
+        <v>6.717553659535318</v>
       </c>
       <c r="F14">
-        <v>37.63114616627742</v>
+        <v>28.82076641751131</v>
       </c>
       <c r="G14">
-        <v>2.107921246564291</v>
+        <v>9.197776392740895</v>
       </c>
       <c r="H14">
-        <v>6.779957150400451</v>
+        <v>6.66903098214057</v>
       </c>
       <c r="I14">
-        <v>3.210536494681032</v>
+        <v>2.885636986966451</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.20948324118515</v>
+        <v>17.12621553720598</v>
       </c>
       <c r="L14">
-        <v>5.905351025400562</v>
+        <v>13.23844652708621</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.20569223194849</v>
       </c>
       <c r="N14">
-        <v>7.111761408742856</v>
+        <v>6.042712083783554</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.496569188026901</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.30316232477174</v>
+        <v>30.30746399047538</v>
       </c>
       <c r="C15">
-        <v>21.39727383685596</v>
+        <v>21.54713969122306</v>
       </c>
       <c r="D15">
-        <v>2.476965994802866</v>
+        <v>3.037580891658924</v>
       </c>
       <c r="E15">
-        <v>6.551918314409575</v>
+        <v>6.756939356536412</v>
       </c>
       <c r="F15">
-        <v>36.90848815627633</v>
+        <v>28.59733517765753</v>
       </c>
       <c r="G15">
-        <v>2.109018630036036</v>
+        <v>8.587269999411538</v>
       </c>
       <c r="H15">
-        <v>7.019684842696651</v>
+        <v>6.904668659344003</v>
       </c>
       <c r="I15">
-        <v>3.25694354186541</v>
+        <v>2.91599579944898</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.77971080295106</v>
+        <v>17.04594666226675</v>
       </c>
       <c r="L15">
-        <v>5.914804780401338</v>
+        <v>13.19219427776958</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.12248420112889</v>
       </c>
       <c r="N15">
-        <v>7.009683972074606</v>
+        <v>6.063965741285154</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.386463116105922</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.37161844782066</v>
+        <v>29.36733417796681</v>
       </c>
       <c r="C16">
-        <v>20.68314537388175</v>
+        <v>21.29933062117811</v>
       </c>
       <c r="D16">
-        <v>2.395846951199935</v>
+        <v>2.907502319405475</v>
       </c>
       <c r="E16">
-        <v>6.391430694129768</v>
+        <v>6.724015236691177</v>
       </c>
       <c r="F16">
-        <v>36.39308343551587</v>
+        <v>29.71526507562191</v>
       </c>
       <c r="G16">
-        <v>2.114009753599906</v>
+        <v>6.182164112672435</v>
       </c>
       <c r="H16">
-        <v>6.878876316587562</v>
+        <v>6.722949687246173</v>
       </c>
       <c r="I16">
-        <v>3.450380791194099</v>
+        <v>3.036314586684332</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.67289169361696</v>
+        <v>17.89079379922699</v>
       </c>
       <c r="L16">
-        <v>5.841989154959615</v>
+        <v>13.8501871597826</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.70534765831172</v>
       </c>
       <c r="N16">
-        <v>6.919099397773966</v>
+        <v>6.005910943379131</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.305460501058582</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78608695625048</v>
+        <v>28.77566670975973</v>
       </c>
       <c r="C17">
-        <v>20.24572627933983</v>
+        <v>21.11357612701701</v>
       </c>
       <c r="D17">
-        <v>2.352196759533478</v>
+        <v>2.84239870615949</v>
       </c>
       <c r="E17">
-        <v>6.183389487164925</v>
+        <v>6.590662370553388</v>
       </c>
       <c r="F17">
-        <v>37.39319461530575</v>
+        <v>31.13864632554436</v>
       </c>
       <c r="G17">
-        <v>2.116605352242783</v>
+        <v>5.6466382499078</v>
       </c>
       <c r="H17">
-        <v>6.220088927506685</v>
+        <v>6.024447837298174</v>
       </c>
       <c r="I17">
-        <v>3.54977011925184</v>
+        <v>3.101196398363744</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.44938834475113</v>
+        <v>18.83057735068543</v>
       </c>
       <c r="L17">
-        <v>5.755306155513979</v>
+        <v>14.57356749016565</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.38746515580231</v>
       </c>
       <c r="N17">
-        <v>7.056967412880972</v>
+        <v>5.910730870914481</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.468735612335167</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.4422533729103</v>
+        <v>28.42973687162108</v>
       </c>
       <c r="C18">
-        <v>19.99091858744174</v>
+        <v>21.04629117268401</v>
       </c>
       <c r="D18">
-        <v>2.346516734738295</v>
+        <v>2.783345769047948</v>
       </c>
       <c r="E18">
-        <v>5.955203085946781</v>
+        <v>6.406546353704434</v>
       </c>
       <c r="F18">
-        <v>39.90456108535097</v>
+        <v>33.3468742120254</v>
       </c>
       <c r="G18">
-        <v>2.1172924380133</v>
+        <v>5.513247323167912</v>
       </c>
       <c r="H18">
-        <v>5.08228440492826</v>
+        <v>4.835322116898287</v>
       </c>
       <c r="I18">
-        <v>3.565753594184113</v>
+        <v>3.107373503712056</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.1676739167381</v>
+        <v>20.19840558991101</v>
       </c>
       <c r="L18">
-        <v>5.689175399059632</v>
+        <v>15.60937146765164</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.41629307701118</v>
       </c>
       <c r="N18">
-        <v>7.408732935696214</v>
+        <v>5.807272782802386</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.86684004135502</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32216328601784</v>
+        <v>28.31166970733076</v>
       </c>
       <c r="C19">
-        <v>19.9380245951831</v>
+        <v>21.14668547360064</v>
       </c>
       <c r="D19">
-        <v>2.370542190081184</v>
+        <v>2.724469377235229</v>
       </c>
       <c r="E19">
-        <v>5.799646049719194</v>
+        <v>6.26989591442378</v>
       </c>
       <c r="F19">
-        <v>43.26842585295618</v>
+        <v>35.99659683385993</v>
       </c>
       <c r="G19">
-        <v>2.116321646752379</v>
+        <v>5.376125007394982</v>
       </c>
       <c r="H19">
-        <v>3.777172613642244</v>
+        <v>3.459252574309497</v>
       </c>
       <c r="I19">
-        <v>3.526455632283364</v>
+        <v>3.08314129859165</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.42726901709915</v>
+        <v>21.81365365192559</v>
       </c>
       <c r="L19">
-        <v>5.707332858413106</v>
+        <v>16.82212398772406</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.64849139927459</v>
       </c>
       <c r="N19">
-        <v>7.922008078838529</v>
+        <v>5.756470911365176</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.439108835437747</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.84082208397751</v>
+        <v>28.84163712308204</v>
       </c>
       <c r="C20">
-        <v>20.39932519976005</v>
+        <v>21.68169172737939</v>
       </c>
       <c r="D20">
-        <v>2.492971530979878</v>
+        <v>2.652059811591317</v>
       </c>
       <c r="E20">
-        <v>5.858728097677901</v>
+        <v>6.299452700787615</v>
       </c>
       <c r="F20">
-        <v>49.08118533500279</v>
+        <v>39.96947791788604</v>
       </c>
       <c r="G20">
-        <v>2.110653761448354</v>
+        <v>5.139732225737588</v>
       </c>
       <c r="H20">
-        <v>2.44426358104819</v>
+        <v>2.079951459952816</v>
       </c>
       <c r="I20">
-        <v>3.30109453107588</v>
+        <v>2.934860731588643</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.2669738930725</v>
+        <v>24.15418044482335</v>
       </c>
       <c r="L20">
-        <v>5.944538765851354</v>
+        <v>18.51065543010703</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.51417591381139</v>
       </c>
       <c r="N20">
-        <v>8.828985279815861</v>
+        <v>5.836811436721182</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.438166135319094</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.54424124087637</v>
+        <v>30.55375810968158</v>
       </c>
       <c r="C21">
-        <v>21.73056744775389</v>
+        <v>22.10116595562263</v>
       </c>
       <c r="D21">
-        <v>2.655623553233794</v>
+        <v>2.85803560400233</v>
       </c>
       <c r="E21">
-        <v>6.103003201867888</v>
+        <v>6.480167526583423</v>
       </c>
       <c r="F21">
-        <v>51.63795042966824</v>
+        <v>38.63481242339683</v>
       </c>
       <c r="G21">
-        <v>2.100688919120143</v>
+        <v>10.28634650029389</v>
       </c>
       <c r="H21">
-        <v>1.97113609418423</v>
+        <v>1.77886001736829</v>
       </c>
       <c r="I21">
-        <v>2.918715210112599</v>
+        <v>2.716411775988163</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.64700440466723</v>
+        <v>22.87152837408301</v>
       </c>
       <c r="L21">
-        <v>6.104199853417582</v>
+        <v>17.35983450242765</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.77352628908211</v>
       </c>
       <c r="N21">
-        <v>9.258865206940758</v>
+        <v>5.878860080684567</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.86717375816211</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.6160698278058</v>
+        <v>31.62382645292018</v>
       </c>
       <c r="C22">
-        <v>22.55119461642504</v>
+        <v>22.29092366737764</v>
       </c>
       <c r="D22">
-        <v>2.766152438771654</v>
+        <v>3.101598633217733</v>
       </c>
       <c r="E22">
-        <v>6.257537323169984</v>
+        <v>6.612128134643319</v>
       </c>
       <c r="F22">
-        <v>53.14081457478584</v>
+        <v>37.51871286099877</v>
       </c>
       <c r="G22">
-        <v>2.094334643696292</v>
+        <v>14.98170585466443</v>
       </c>
       <c r="H22">
-        <v>1.679554689962507</v>
+        <v>1.597476208029565</v>
       </c>
       <c r="I22">
-        <v>2.664969679265812</v>
+        <v>2.564159371547843</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.45356840906695</v>
+        <v>21.89648360019863</v>
       </c>
       <c r="L22">
-        <v>6.197414773330451</v>
+        <v>16.5291723972096</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.17336027275875</v>
       </c>
       <c r="N22">
-        <v>9.48910128929553</v>
+        <v>5.901398521062793</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.09116962268723</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.04791070538707</v>
+        <v>31.05760831741392</v>
       </c>
       <c r="C23">
-        <v>22.09800519212439</v>
+        <v>22.2831449661428</v>
       </c>
       <c r="D23">
-        <v>2.717757139294354</v>
+        <v>2.920288692237158</v>
       </c>
       <c r="E23">
-        <v>6.176008130819676</v>
+        <v>6.533119295083091</v>
       </c>
       <c r="F23">
-        <v>52.45021177980691</v>
+        <v>38.54808216643016</v>
       </c>
       <c r="G23">
-        <v>2.097667957986557</v>
+        <v>11.65210451344131</v>
       </c>
       <c r="H23">
-        <v>1.832418781645323</v>
+        <v>1.686694481812887</v>
       </c>
       <c r="I23">
-        <v>2.787064463017694</v>
+        <v>2.625181342270882</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.11006028080755</v>
+        <v>22.70135390479045</v>
       </c>
       <c r="L23">
-        <v>6.15159823320472</v>
+        <v>17.17635683859135</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.7173362102283</v>
       </c>
       <c r="N23">
-        <v>9.360085601333365</v>
+        <v>5.896127873144575</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.970868740440784</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.81201303350143</v>
+        <v>28.81303616374066</v>
       </c>
       <c r="C24">
-        <v>20.35197328158497</v>
+        <v>21.66040579414295</v>
       </c>
       <c r="D24">
-        <v>2.513899561652545</v>
+        <v>2.640139565215053</v>
       </c>
       <c r="E24">
-        <v>5.864256097479366</v>
+        <v>6.305470592839944</v>
       </c>
       <c r="F24">
-        <v>49.59981878174468</v>
+        <v>40.40185055003418</v>
       </c>
       <c r="G24">
-        <v>2.110511346434411</v>
+        <v>5.098889318999215</v>
       </c>
       <c r="H24">
-        <v>2.422149940469957</v>
+        <v>2.059090273258405</v>
       </c>
       <c r="I24">
-        <v>3.279027418852211</v>
+        <v>2.910205723491459</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.64731416856926</v>
+        <v>24.45089498822942</v>
       </c>
       <c r="L24">
-        <v>5.969626533267147</v>
+        <v>18.73560774996072</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.73725412646284</v>
       </c>
       <c r="N24">
-        <v>8.870997872448827</v>
+        <v>5.849589524098452</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.488296801422075</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.21985836379274</v>
+        <v>26.18261479544451</v>
       </c>
       <c r="C25">
-        <v>18.34076210822598</v>
+        <v>19.63988456366151</v>
       </c>
       <c r="D25">
-        <v>2.284979290428679</v>
+        <v>2.593873685898813</v>
       </c>
       <c r="E25">
-        <v>5.522843191868885</v>
+        <v>6.109859788029117</v>
       </c>
       <c r="F25">
-        <v>46.40209330257446</v>
+        <v>38.43136454574733</v>
       </c>
       <c r="G25">
-        <v>2.124713113051022</v>
+        <v>6.409723302591538</v>
       </c>
       <c r="H25">
-        <v>3.075451358406632</v>
+        <v>2.555799035537556</v>
       </c>
       <c r="I25">
-        <v>3.826968791273968</v>
+        <v>3.30398085346626</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>30.02278815260127</v>
+        <v>23.80152261734937</v>
       </c>
       <c r="L25">
-        <v>5.7677651059611</v>
+        <v>18.55444635680551</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.89698535608966</v>
       </c>
       <c r="N25">
-        <v>8.320544408643979</v>
+        <v>5.733900749712877</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.894512418150155</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
